--- a/conf/邮箱管理.xlsx
+++ b/conf/邮箱管理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54043390-F9A9-4246-A25E-B258DFEEF7A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CD6552-52D1-4D1E-A088-E4845566A779}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>张流云</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,14 @@
   </si>
   <si>
     <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhou11@windit.com.cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -398,12 +406,21 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{33D32752-C0F8-4248-986B-A50963FD05A7}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{C1081424-56CC-4D7F-B600-5616C27C1711}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/conf/邮箱管理.xlsx
+++ b/conf/邮箱管理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CD6552-52D1-4D1E-A088-E4845566A779}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DD7841-7AAF-4C9D-9BF2-28268DD782F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>张流云</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,30 @@
   </si>
   <si>
     <t>zhou11@windit.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈欢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chenh@windit.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞠文龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>juwl@windit.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨士震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yangsz@windit.com.cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -414,13 +438,40 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{33D32752-C0F8-4248-986B-A50963FD05A7}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{C1081424-56CC-4D7F-B600-5616C27C1711}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{21F5C3F3-30B0-4E6E-9D06-48B281FE1425}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{25BF85A6-9D75-4152-9270-F999176BE79C}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{C735D00C-ABB7-42AE-8162-99C198FF68B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/conf/邮箱管理.xlsx
+++ b/conf/邮箱管理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DD7841-7AAF-4C9D-9BF2-28268DD782F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB16A88D-1367-4068-9473-C7CF75B7316F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>张流云</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,54 @@
   </si>
   <si>
     <t>yangsz@windit.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李苗苗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limm@windit.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傅雄飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuxf@windit.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪君燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nijy@windit.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhou12@windit.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘晓青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liuxq@windit.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赖慧君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>laihj@windit.com.cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -462,6 +510,54 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -470,8 +566,14 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{21F5C3F3-30B0-4E6E-9D06-48B281FE1425}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{25BF85A6-9D75-4152-9270-F999176BE79C}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{C735D00C-ABB7-42AE-8162-99C198FF68B7}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{CFA60C3C-24CE-470D-898A-91691B52E10B}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{508CF123-80C8-4585-9072-E2692EF4F115}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{1CAA65F7-1CCE-4BB8-B5EE-7B62F796D6F4}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{B2674C07-4358-49F9-A7C7-5C662ACA98F5}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{5B34D1C0-36E4-4528-AB68-7583EB7EBB79}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{BC642B74-7C90-4954-97AE-23A8B8D8CC55}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/conf/邮箱管理.xlsx
+++ b/conf/邮箱管理.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB16A88D-1367-4068-9473-C7CF75B7316F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA204B1-C65B-4F80-A440-DE2FD6AAA655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zhou11@windit.com.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陈欢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zhou12@windit.com.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刘晓青</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,6 +107,14 @@
   </si>
   <si>
     <t>laihj@windit.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhouwx@windit.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41719122@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,15 +454,15 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -470,7 +470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -478,84 +478,84 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/conf/邮箱管理.xlsx
+++ b/conf/邮箱管理.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA204B1-C65B-4F80-A440-DE2FD6AAA655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A977BF-3291-4042-94EA-ECC6C827913B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>张流云</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,48 @@
   </si>
   <si>
     <t>41719122@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周文兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周婷婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhout@windit.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗方滨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>luofb@windit.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huangy@windit.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄勇</t>
+  </si>
+  <si>
+    <t>朱燕京</t>
+  </si>
+  <si>
+    <t>zhuyj@windit.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangy@windit.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yeyl@windit.com.cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +187,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -163,16 +227,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2 3" xfId="2" xr:uid="{A8D2D4F2-5775-4817-92C4-44C2494692E9}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -451,18 +527,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -470,110 +547,152 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{33D32752-C0F8-4248-986B-A50963FD05A7}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{C1081424-56CC-4D7F-B600-5616C27C1711}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{21F5C3F3-30B0-4E6E-9D06-48B281FE1425}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{25BF85A6-9D75-4152-9270-F999176BE79C}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{C735D00C-ABB7-42AE-8162-99C198FF68B7}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{CFA60C3C-24CE-470D-898A-91691B52E10B}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{508CF123-80C8-4585-9072-E2692EF4F115}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{1CAA65F7-1CCE-4BB8-B5EE-7B62F796D6F4}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{B2674C07-4358-49F9-A7C7-5C662ACA98F5}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{5B34D1C0-36E4-4528-AB68-7583EB7EBB79}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{BC642B74-7C90-4954-97AE-23A8B8D8CC55}"/>
+    <hyperlink ref="C15" r:id="rId1" xr:uid="{E2BCAD48-9DEC-49A1-9731-4B83577A8EFB}"/>
+    <hyperlink ref="C16" r:id="rId2" xr:uid="{5A16441D-81D0-4C3D-ADB9-2B08F592FEB7}"/>
+    <hyperlink ref="B16" r:id="rId3" xr:uid="{4814623D-C945-48B8-9A97-F8DE75CCF409}"/>
+    <hyperlink ref="B17" r:id="rId4" xr:uid="{C9FF51C7-BE61-45C8-98E0-E816A643B9CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>